--- a/iris_dataset.xlsx
+++ b/iris_dataset.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,36 +438,36 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>sepal length (cm)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>sepal width (cm)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>petal length (cm)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>petal width (cm)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Iris-setosa</t>
+          <t>Species</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C2" t="n">
         <v>1.4</v>
@@ -483,13 +483,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="B3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D3" t="n">
         <v>0.2</v>
@@ -502,13 +502,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="B4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
@@ -521,13 +521,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="B5" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D5" t="n">
         <v>0.2</v>
@@ -540,16 +540,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="C6" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -559,16 +559,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="B7" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="C7" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -578,16 +578,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="B8" t="n">
         <v>3.4</v>
       </c>
       <c r="C8" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -597,13 +597,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="C9" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D9" t="n">
         <v>0.2</v>
@@ -616,16 +616,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="B10" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="C10" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -635,16 +635,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="C11" t="n">
         <v>1.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -654,13 +654,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="B12" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="C12" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D12" t="n">
         <v>0.2</v>
@@ -676,13 +676,13 @@
         <v>4.8</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="C13" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -692,13 +692,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="D14" t="n">
         <v>0.1</v>
@@ -711,16 +711,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -730,16 +730,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="B16" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="B17" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="C17" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D17" t="n">
         <v>0.4</v>
@@ -768,16 +768,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="B18" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="C18" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -787,13 +787,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="B19" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="C19" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D19" t="n">
         <v>0.3</v>
@@ -806,13 +806,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="B20" t="n">
         <v>3.8</v>
       </c>
       <c r="C20" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="D20" t="n">
         <v>0.3</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="B21" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="C21" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -844,16 +844,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="B22" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="C22" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -863,16 +863,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="B23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -882,16 +882,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="B24" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="C24" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -901,16 +901,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="B25" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="C25" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -920,13 +920,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="C26" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="D26" t="n">
         <v>0.2</v>
@@ -942,13 +942,13 @@
         <v>5</v>
       </c>
       <c r="B27" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
         <v>1.6</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -958,16 +958,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="C28" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -980,10 +980,10 @@
         <v>5.2</v>
       </c>
       <c r="B29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="C29" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D29" t="n">
         <v>0.2</v>
@@ -996,13 +996,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="B30" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="C30" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D30" t="n">
         <v>0.2</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="B31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C31" t="n">
         <v>1.6</v>
@@ -1034,16 +1034,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="B32" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="C32" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1053,16 +1053,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="B33" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="C33" t="n">
         <v>1.5</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1072,16 +1072,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="B34" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="C34" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1091,16 +1091,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="B35" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="C35" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1110,16 +1110,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="B36" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="C36" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="B37" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="C37" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="D37" t="n">
         <v>0.2</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="B38" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="C38" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="C39" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1186,13 +1186,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="B40" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D40" t="n">
         <v>0.2</v>
@@ -1205,16 +1205,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="B41" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="C41" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="C42" t="n">
         <v>1.3</v>
@@ -1243,16 +1243,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="B43" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="C43" t="n">
         <v>1.3</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1262,16 +1262,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="B44" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="C44" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="B45" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="C45" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1300,16 +1300,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="C46" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1319,16 +1319,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="B47" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1338,13 +1338,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="B48" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="C48" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D48" t="n">
         <v>0.2</v>
@@ -1357,13 +1357,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="B49" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="C49" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D49" t="n">
         <v>0.2</v>
@@ -1376,13 +1376,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="B50" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="C50" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D50" t="n">
         <v>0.2</v>
@@ -1395,35 +1395,35 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B51" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="C51" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="D51" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Iris-versicolor</t>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="B52" t="n">
         <v>3.2</v>
       </c>
       <c r="C52" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D52" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="B53" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C53" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="D53" t="n">
         <v>1.5</v>
@@ -1452,16 +1452,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
       <c r="B54" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="D54" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1471,16 +1471,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="B55" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="C55" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1490,16 +1490,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="B56" t="n">
         <v>2.8</v>
       </c>
       <c r="C56" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D56" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1509,16 +1509,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="B57" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="C57" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="D57" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1528,16 +1528,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.9</v>
+        <v>6.3</v>
       </c>
       <c r="B58" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="C58" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1547,16 +1547,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6.6</v>
+        <v>4.9</v>
       </c>
       <c r="B59" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="C59" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="D59" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1566,16 +1566,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="B60" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="C60" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D60" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1585,16 +1585,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="C61" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D62" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1623,16 +1623,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="B63" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1642,16 +1642,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="B64" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="C64" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1661,16 +1661,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="B65" t="n">
         <v>2.9</v>
       </c>
       <c r="C65" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="D65" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1680,16 +1680,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
       <c r="B66" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="C66" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D66" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1699,16 +1699,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="C67" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="D67" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1718,16 +1718,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="B68" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="B69" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="C69" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D69" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1756,16 +1756,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="B70" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="C70" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D70" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1775,16 +1775,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="B71" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="C71" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="D71" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1794,16 +1794,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="B72" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="D72" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="B73" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="C73" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1832,16 +1832,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="B74" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="C74" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="D74" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1851,16 +1851,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="B75" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="C75" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="D75" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1870,16 +1870,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="C76" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D76" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="B77" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="D77" t="n">
         <v>1.4</v>
@@ -1908,16 +1908,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="D78" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="B79" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -1946,16 +1946,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="B80" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="C80" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -1965,16 +1965,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="B81" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="C81" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>2.4</v>
       </c>
       <c r="C82" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2003,16 +2003,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="B83" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="C83" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D83" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2022,16 +2022,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="B84" t="n">
         <v>2.7</v>
       </c>
       <c r="C84" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="D84" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2041,16 +2041,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="C85" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="D85" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2060,16 +2060,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="B86" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
         <v>4.5</v>
       </c>
       <c r="D86" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2079,16 +2079,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="B87" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="C87" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="D87" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2098,16 +2098,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="B88" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="C88" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="D88" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2117,13 +2117,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="C89" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D89" t="n">
         <v>1.3</v>
@@ -2136,13 +2136,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="B90" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D90" t="n">
         <v>1.3</v>
@@ -2158,13 +2158,13 @@
         <v>5.5</v>
       </c>
       <c r="B91" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="C91" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2174,16 +2174,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="C92" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D92" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2193,16 +2193,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="B93" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D93" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2212,16 +2212,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="B94" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="C94" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2231,16 +2231,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="B95" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="C95" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D95" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="C96" t="n">
         <v>4.2</v>
       </c>
       <c r="D96" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2272,13 +2272,13 @@
         <v>5.7</v>
       </c>
       <c r="B97" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
         <v>4.2</v>
       </c>
       <c r="D97" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2288,13 +2288,13 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="B98" t="n">
         <v>2.9</v>
       </c>
       <c r="C98" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D98" t="n">
         <v>1.3</v>
@@ -2307,16 +2307,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="B99" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D99" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2326,16 +2326,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="B100" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="C100" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2345,35 +2345,35 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="B101" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Iris-virginica</t>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="B102" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="C102" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2383,16 +2383,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>7.1</v>
+        <v>5.8</v>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="C103" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="D103" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2402,16 +2402,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="B104" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="D104" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2421,16 +2421,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="C105" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="D105" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2440,16 +2440,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="B106" t="n">
         <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="D106" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2459,16 +2459,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>4.9</v>
+        <v>7.6</v>
       </c>
       <c r="B107" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C107" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="D107" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2478,16 +2478,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>7.3</v>
+        <v>4.9</v>
       </c>
       <c r="B108" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="C108" t="n">
-        <v>6.3</v>
+        <v>4.5</v>
       </c>
       <c r="D108" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2497,13 +2497,13 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="B109" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="C109" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D109" t="n">
         <v>1.8</v>
@@ -2516,16 +2516,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="B110" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="C110" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="D110" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2535,16 +2535,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="B111" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="C111" t="n">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2554,16 +2554,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="B112" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="C112" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="D112" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2573,16 +2573,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="B113" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="C113" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="D113" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2592,16 +2592,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="B114" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2611,16 +2611,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="B115" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="C115" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="D115" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2630,16 +2630,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="B116" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="C116" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="D116" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2649,16 +2649,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="B117" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="C117" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="D117" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2668,16 +2668,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="B118" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="C118" t="n">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="D118" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2690,13 +2690,13 @@
         <v>7.7</v>
       </c>
       <c r="B119" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="C119" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="D119" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2706,16 +2706,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="B120" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="C120" t="n">
-        <v>5</v>
+        <v>6.9</v>
       </c>
       <c r="D120" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2725,16 +2725,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="B121" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="C121" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="D121" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="B122" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="C122" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2763,13 +2763,13 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>7.7</v>
+        <v>5.6</v>
       </c>
       <c r="B123" t="n">
         <v>2.8</v>
       </c>
       <c r="C123" t="n">
-        <v>6.7</v>
+        <v>4.9</v>
       </c>
       <c r="D123" t="n">
         <v>2</v>
@@ -2782,16 +2782,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="B124" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="C124" t="n">
-        <v>4.9</v>
+        <v>6.7</v>
       </c>
       <c r="D124" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -2801,16 +2801,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="B125" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="C125" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="D125" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2820,16 +2820,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="B126" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="C126" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="D126" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2839,13 +2839,13 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="B127" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="C127" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
         <v>1.8</v>
@@ -2858,13 +2858,13 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="C128" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="D128" t="n">
         <v>1.8</v>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="B129" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="D129" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="C130" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="D130" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -2915,16 +2915,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="B131" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="D131" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -2934,16 +2934,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="B132" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="C132" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="D132" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -2953,16 +2953,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C133" t="n">
         <v>6.4</v>
       </c>
-      <c r="B133" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C133" t="n">
-        <v>5.6</v>
-      </c>
       <c r="D133" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -2972,16 +2972,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="B134" t="n">
         <v>2.8</v>
       </c>
       <c r="C134" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="D134" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -2991,16 +2991,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="B135" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="C135" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="D135" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3010,16 +3010,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>7.7</v>
+        <v>6.1</v>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="C136" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="D136" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3029,16 +3029,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="B137" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="C137" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="D137" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3048,16 +3048,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="B138" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="C138" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="D138" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3067,13 +3067,13 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="B139" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="C139" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="D139" t="n">
         <v>1.8</v>
@@ -3086,16 +3086,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="B140" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="C140" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="D140" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3105,16 +3105,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="B141" t="n">
         <v>3.1</v>
       </c>
       <c r="C141" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="D141" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3124,16 +3124,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="B142" t="n">
         <v>3.1</v>
       </c>
       <c r="C142" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="D142" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3143,16 +3143,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>5.8</v>
+        <v>6.9</v>
       </c>
       <c r="B143" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="C143" t="n">
         <v>5.1</v>
       </c>
       <c r="D143" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3162,16 +3162,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="B144" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="C144" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="D144" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3181,16 +3181,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="B145" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C145" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="D145" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3203,13 +3203,13 @@
         <v>6.7</v>
       </c>
       <c r="B146" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="C146" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="D146" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3219,16 +3219,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="B147" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C147" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D147" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3238,16 +3238,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="B148" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C148" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="B149" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="D149" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3276,18 +3276,37 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
         <v>5.9</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B151" t="n">
         <v>3</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C151" t="n">
         <v>5.1</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D151" t="n">
         <v>1.8</v>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>Iris-virginica</t>
         </is>
@@ -3335,7 +3354,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>Species</t>
         </is>
       </c>
     </row>
@@ -3352,8 +3371,10 @@
       <c r="D2" t="n">
         <v>0.2</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -3369,8 +3390,10 @@
       <c r="D3" t="n">
         <v>0.2</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -3386,8 +3409,10 @@
       <c r="D4" t="n">
         <v>0.2</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -3403,8 +3428,10 @@
       <c r="D5" t="n">
         <v>0.2</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -3420,8 +3447,10 @@
       <c r="D6" t="n">
         <v>0.2</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -3437,8 +3466,10 @@
       <c r="D7" t="n">
         <v>0.4</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -3454,8 +3485,10 @@
       <c r="D8" t="n">
         <v>0.3</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -3471,8 +3504,10 @@
       <c r="D9" t="n">
         <v>0.2</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -3488,8 +3523,10 @@
       <c r="D10" t="n">
         <v>0.2</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -3505,8 +3542,10 @@
       <c r="D11" t="n">
         <v>0.1</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -3522,8 +3561,10 @@
       <c r="D12" t="n">
         <v>0.2</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -3539,8 +3580,10 @@
       <c r="D13" t="n">
         <v>0.2</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -3556,8 +3599,10 @@
       <c r="D14" t="n">
         <v>0.1</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -3573,8 +3618,10 @@
       <c r="D15" t="n">
         <v>0.1</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -3590,8 +3637,10 @@
       <c r="D16" t="n">
         <v>0.2</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -3607,8 +3656,10 @@
       <c r="D17" t="n">
         <v>0.4</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -3624,8 +3675,10 @@
       <c r="D18" t="n">
         <v>0.4</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -3641,8 +3694,10 @@
       <c r="D19" t="n">
         <v>0.3</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -3658,8 +3713,10 @@
       <c r="D20" t="n">
         <v>0.3</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -3675,8 +3732,10 @@
       <c r="D21" t="n">
         <v>0.3</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -3692,8 +3751,10 @@
       <c r="D22" t="n">
         <v>0.2</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -3709,8 +3770,10 @@
       <c r="D23" t="n">
         <v>0.4</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -3726,8 +3789,10 @@
       <c r="D24" t="n">
         <v>0.2</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3743,8 +3808,10 @@
       <c r="D25" t="n">
         <v>0.5</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3760,8 +3827,10 @@
       <c r="D26" t="n">
         <v>0.2</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3777,8 +3846,10 @@
       <c r="D27" t="n">
         <v>0.2</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3794,8 +3865,10 @@
       <c r="D28" t="n">
         <v>0.4</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3811,8 +3884,10 @@
       <c r="D29" t="n">
         <v>0.2</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3828,8 +3903,10 @@
       <c r="D30" t="n">
         <v>0.2</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3845,8 +3922,10 @@
       <c r="D31" t="n">
         <v>0.2</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3862,8 +3941,10 @@
       <c r="D32" t="n">
         <v>0.2</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3879,8 +3960,10 @@
       <c r="D33" t="n">
         <v>0.4</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3896,8 +3979,10 @@
       <c r="D34" t="n">
         <v>0.1</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3913,8 +3998,10 @@
       <c r="D35" t="n">
         <v>0.2</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3930,8 +4017,10 @@
       <c r="D36" t="n">
         <v>0.2</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3947,8 +4036,10 @@
       <c r="D37" t="n">
         <v>0.2</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3964,8 +4055,10 @@
       <c r="D38" t="n">
         <v>0.2</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3981,8 +4074,10 @@
       <c r="D39" t="n">
         <v>0.1</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3998,8 +4093,10 @@
       <c r="D40" t="n">
         <v>0.2</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -4015,8 +4112,10 @@
       <c r="D41" t="n">
         <v>0.2</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -4032,8 +4131,10 @@
       <c r="D42" t="n">
         <v>0.3</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -4049,8 +4150,10 @@
       <c r="D43" t="n">
         <v>0.3</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -4066,8 +4169,10 @@
       <c r="D44" t="n">
         <v>0.2</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -4083,8 +4188,10 @@
       <c r="D45" t="n">
         <v>0.6</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -4100,8 +4207,10 @@
       <c r="D46" t="n">
         <v>0.4</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -4117,8 +4226,10 @@
       <c r="D47" t="n">
         <v>0.3</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4134,8 +4245,10 @@
       <c r="D48" t="n">
         <v>0.2</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4151,8 +4264,10 @@
       <c r="D49" t="n">
         <v>0.2</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4168,8 +4283,10 @@
       <c r="D50" t="n">
         <v>0.2</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4185,8 +4302,10 @@
       <c r="D51" t="n">
         <v>0.2</v>
       </c>
-      <c r="E51" t="n">
-        <v>0</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4202,8 +4321,10 @@
       <c r="D52" t="n">
         <v>1.4</v>
       </c>
-      <c r="E52" t="n">
-        <v>1</v>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4219,8 +4340,10 @@
       <c r="D53" t="n">
         <v>1.5</v>
       </c>
-      <c r="E53" t="n">
-        <v>1</v>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4236,8 +4359,10 @@
       <c r="D54" t="n">
         <v>1.5</v>
       </c>
-      <c r="E54" t="n">
-        <v>1</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4253,8 +4378,10 @@
       <c r="D55" t="n">
         <v>1.3</v>
       </c>
-      <c r="E55" t="n">
-        <v>1</v>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4270,8 +4397,10 @@
       <c r="D56" t="n">
         <v>1.5</v>
       </c>
-      <c r="E56" t="n">
-        <v>1</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4287,8 +4416,10 @@
       <c r="D57" t="n">
         <v>1.3</v>
       </c>
-      <c r="E57" t="n">
-        <v>1</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4304,8 +4435,10 @@
       <c r="D58" t="n">
         <v>1.6</v>
       </c>
-      <c r="E58" t="n">
-        <v>1</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4321,8 +4454,10 @@
       <c r="D59" t="n">
         <v>1</v>
       </c>
-      <c r="E59" t="n">
-        <v>1</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4338,8 +4473,10 @@
       <c r="D60" t="n">
         <v>1.3</v>
       </c>
-      <c r="E60" t="n">
-        <v>1</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4355,8 +4492,10 @@
       <c r="D61" t="n">
         <v>1.4</v>
       </c>
-      <c r="E61" t="n">
-        <v>1</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4372,8 +4511,10 @@
       <c r="D62" t="n">
         <v>1</v>
       </c>
-      <c r="E62" t="n">
-        <v>1</v>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4389,8 +4530,10 @@
       <c r="D63" t="n">
         <v>1.5</v>
       </c>
-      <c r="E63" t="n">
-        <v>1</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4406,8 +4549,10 @@
       <c r="D64" t="n">
         <v>1</v>
       </c>
-      <c r="E64" t="n">
-        <v>1</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4423,8 +4568,10 @@
       <c r="D65" t="n">
         <v>1.4</v>
       </c>
-      <c r="E65" t="n">
-        <v>1</v>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4440,8 +4587,10 @@
       <c r="D66" t="n">
         <v>1.3</v>
       </c>
-      <c r="E66" t="n">
-        <v>1</v>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4457,8 +4606,10 @@
       <c r="D67" t="n">
         <v>1.4</v>
       </c>
-      <c r="E67" t="n">
-        <v>1</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4474,8 +4625,10 @@
       <c r="D68" t="n">
         <v>1.5</v>
       </c>
-      <c r="E68" t="n">
-        <v>1</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -4491,8 +4644,10 @@
       <c r="D69" t="n">
         <v>1</v>
       </c>
-      <c r="E69" t="n">
-        <v>1</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -4508,8 +4663,10 @@
       <c r="D70" t="n">
         <v>1.5</v>
       </c>
-      <c r="E70" t="n">
-        <v>1</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -4525,8 +4682,10 @@
       <c r="D71" t="n">
         <v>1.1</v>
       </c>
-      <c r="E71" t="n">
-        <v>1</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -4542,8 +4701,10 @@
       <c r="D72" t="n">
         <v>1.8</v>
       </c>
-      <c r="E72" t="n">
-        <v>1</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -4559,8 +4720,10 @@
       <c r="D73" t="n">
         <v>1.3</v>
       </c>
-      <c r="E73" t="n">
-        <v>1</v>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -4576,8 +4739,10 @@
       <c r="D74" t="n">
         <v>1.5</v>
       </c>
-      <c r="E74" t="n">
-        <v>1</v>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -4593,8 +4758,10 @@
       <c r="D75" t="n">
         <v>1.2</v>
       </c>
-      <c r="E75" t="n">
-        <v>1</v>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -4610,8 +4777,10 @@
       <c r="D76" t="n">
         <v>1.3</v>
       </c>
-      <c r="E76" t="n">
-        <v>1</v>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -4627,8 +4796,10 @@
       <c r="D77" t="n">
         <v>1.4</v>
       </c>
-      <c r="E77" t="n">
-        <v>1</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -4644,8 +4815,10 @@
       <c r="D78" t="n">
         <v>1.4</v>
       </c>
-      <c r="E78" t="n">
-        <v>1</v>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -4661,8 +4834,10 @@
       <c r="D79" t="n">
         <v>1.7</v>
       </c>
-      <c r="E79" t="n">
-        <v>1</v>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -4678,8 +4853,10 @@
       <c r="D80" t="n">
         <v>1.5</v>
       </c>
-      <c r="E80" t="n">
-        <v>1</v>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -4695,8 +4872,10 @@
       <c r="D81" t="n">
         <v>1</v>
       </c>
-      <c r="E81" t="n">
-        <v>1</v>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -4712,8 +4891,10 @@
       <c r="D82" t="n">
         <v>1.1</v>
       </c>
-      <c r="E82" t="n">
-        <v>1</v>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -4729,8 +4910,10 @@
       <c r="D83" t="n">
         <v>1</v>
       </c>
-      <c r="E83" t="n">
-        <v>1</v>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -4746,8 +4929,10 @@
       <c r="D84" t="n">
         <v>1.2</v>
       </c>
-      <c r="E84" t="n">
-        <v>1</v>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -4763,8 +4948,10 @@
       <c r="D85" t="n">
         <v>1.6</v>
       </c>
-      <c r="E85" t="n">
-        <v>1</v>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -4780,8 +4967,10 @@
       <c r="D86" t="n">
         <v>1.5</v>
       </c>
-      <c r="E86" t="n">
-        <v>1</v>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -4797,8 +4986,10 @@
       <c r="D87" t="n">
         <v>1.6</v>
       </c>
-      <c r="E87" t="n">
-        <v>1</v>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -4814,8 +5005,10 @@
       <c r="D88" t="n">
         <v>1.5</v>
       </c>
-      <c r="E88" t="n">
-        <v>1</v>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -4831,8 +5024,10 @@
       <c r="D89" t="n">
         <v>1.3</v>
       </c>
-      <c r="E89" t="n">
-        <v>1</v>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -4848,8 +5043,10 @@
       <c r="D90" t="n">
         <v>1.3</v>
       </c>
-      <c r="E90" t="n">
-        <v>1</v>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -4865,8 +5062,10 @@
       <c r="D91" t="n">
         <v>1.3</v>
       </c>
-      <c r="E91" t="n">
-        <v>1</v>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -4882,8 +5081,10 @@
       <c r="D92" t="n">
         <v>1.2</v>
       </c>
-      <c r="E92" t="n">
-        <v>1</v>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -4899,8 +5100,10 @@
       <c r="D93" t="n">
         <v>1.4</v>
       </c>
-      <c r="E93" t="n">
-        <v>1</v>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -4916,8 +5119,10 @@
       <c r="D94" t="n">
         <v>1.2</v>
       </c>
-      <c r="E94" t="n">
-        <v>1</v>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -4933,8 +5138,10 @@
       <c r="D95" t="n">
         <v>1</v>
       </c>
-      <c r="E95" t="n">
-        <v>1</v>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -4950,8 +5157,10 @@
       <c r="D96" t="n">
         <v>1.3</v>
       </c>
-      <c r="E96" t="n">
-        <v>1</v>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -4967,8 +5176,10 @@
       <c r="D97" t="n">
         <v>1.2</v>
       </c>
-      <c r="E97" t="n">
-        <v>1</v>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -4984,8 +5195,10 @@
       <c r="D98" t="n">
         <v>1.3</v>
       </c>
-      <c r="E98" t="n">
-        <v>1</v>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -5001,8 +5214,10 @@
       <c r="D99" t="n">
         <v>1.3</v>
       </c>
-      <c r="E99" t="n">
-        <v>1</v>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -5018,8 +5233,10 @@
       <c r="D100" t="n">
         <v>1.1</v>
       </c>
-      <c r="E100" t="n">
-        <v>1</v>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -5035,8 +5252,10 @@
       <c r="D101" t="n">
         <v>1.3</v>
       </c>
-      <c r="E101" t="n">
-        <v>1</v>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -5052,8 +5271,10 @@
       <c r="D102" t="n">
         <v>2.5</v>
       </c>
-      <c r="E102" t="n">
-        <v>2</v>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -5069,8 +5290,10 @@
       <c r="D103" t="n">
         <v>1.9</v>
       </c>
-      <c r="E103" t="n">
-        <v>2</v>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -5086,8 +5309,10 @@
       <c r="D104" t="n">
         <v>2.1</v>
       </c>
-      <c r="E104" t="n">
-        <v>2</v>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -5103,8 +5328,10 @@
       <c r="D105" t="n">
         <v>1.8</v>
       </c>
-      <c r="E105" t="n">
-        <v>2</v>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -5120,8 +5347,10 @@
       <c r="D106" t="n">
         <v>2.2</v>
       </c>
-      <c r="E106" t="n">
-        <v>2</v>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -5137,8 +5366,10 @@
       <c r="D107" t="n">
         <v>2.1</v>
       </c>
-      <c r="E107" t="n">
-        <v>2</v>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -5154,8 +5385,10 @@
       <c r="D108" t="n">
         <v>1.7</v>
       </c>
-      <c r="E108" t="n">
-        <v>2</v>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -5171,8 +5404,10 @@
       <c r="D109" t="n">
         <v>1.8</v>
       </c>
-      <c r="E109" t="n">
-        <v>2</v>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -5188,8 +5423,10 @@
       <c r="D110" t="n">
         <v>1.8</v>
       </c>
-      <c r="E110" t="n">
-        <v>2</v>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -5205,8 +5442,10 @@
       <c r="D111" t="n">
         <v>2.5</v>
       </c>
-      <c r="E111" t="n">
-        <v>2</v>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -5222,8 +5461,10 @@
       <c r="D112" t="n">
         <v>2</v>
       </c>
-      <c r="E112" t="n">
-        <v>2</v>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -5239,8 +5480,10 @@
       <c r="D113" t="n">
         <v>1.9</v>
       </c>
-      <c r="E113" t="n">
-        <v>2</v>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -5256,8 +5499,10 @@
       <c r="D114" t="n">
         <v>2.1</v>
       </c>
-      <c r="E114" t="n">
-        <v>2</v>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -5273,8 +5518,10 @@
       <c r="D115" t="n">
         <v>2</v>
       </c>
-      <c r="E115" t="n">
-        <v>2</v>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -5290,8 +5537,10 @@
       <c r="D116" t="n">
         <v>2.4</v>
       </c>
-      <c r="E116" t="n">
-        <v>2</v>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -5307,8 +5556,10 @@
       <c r="D117" t="n">
         <v>2.3</v>
       </c>
-      <c r="E117" t="n">
-        <v>2</v>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -5324,8 +5575,10 @@
       <c r="D118" t="n">
         <v>1.8</v>
       </c>
-      <c r="E118" t="n">
-        <v>2</v>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -5341,8 +5594,10 @@
       <c r="D119" t="n">
         <v>2.2</v>
       </c>
-      <c r="E119" t="n">
-        <v>2</v>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -5358,8 +5613,10 @@
       <c r="D120" t="n">
         <v>2.3</v>
       </c>
-      <c r="E120" t="n">
-        <v>2</v>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -5375,8 +5632,10 @@
       <c r="D121" t="n">
         <v>1.5</v>
       </c>
-      <c r="E121" t="n">
-        <v>2</v>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -5392,8 +5651,10 @@
       <c r="D122" t="n">
         <v>2.3</v>
       </c>
-      <c r="E122" t="n">
-        <v>2</v>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -5409,8 +5670,10 @@
       <c r="D123" t="n">
         <v>2</v>
       </c>
-      <c r="E123" t="n">
-        <v>2</v>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -5426,8 +5689,10 @@
       <c r="D124" t="n">
         <v>2</v>
       </c>
-      <c r="E124" t="n">
-        <v>2</v>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -5443,8 +5708,10 @@
       <c r="D125" t="n">
         <v>1.8</v>
       </c>
-      <c r="E125" t="n">
-        <v>2</v>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -5460,8 +5727,10 @@
       <c r="D126" t="n">
         <v>2.1</v>
       </c>
-      <c r="E126" t="n">
-        <v>2</v>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -5477,8 +5746,10 @@
       <c r="D127" t="n">
         <v>1.8</v>
       </c>
-      <c r="E127" t="n">
-        <v>2</v>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -5494,8 +5765,10 @@
       <c r="D128" t="n">
         <v>1.8</v>
       </c>
-      <c r="E128" t="n">
-        <v>2</v>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -5511,8 +5784,10 @@
       <c r="D129" t="n">
         <v>1.8</v>
       </c>
-      <c r="E129" t="n">
-        <v>2</v>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -5528,8 +5803,10 @@
       <c r="D130" t="n">
         <v>2.1</v>
       </c>
-      <c r="E130" t="n">
-        <v>2</v>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -5545,8 +5822,10 @@
       <c r="D131" t="n">
         <v>1.6</v>
       </c>
-      <c r="E131" t="n">
-        <v>2</v>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -5562,8 +5841,10 @@
       <c r="D132" t="n">
         <v>1.9</v>
       </c>
-      <c r="E132" t="n">
-        <v>2</v>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -5579,8 +5860,10 @@
       <c r="D133" t="n">
         <v>2</v>
       </c>
-      <c r="E133" t="n">
-        <v>2</v>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -5596,8 +5879,10 @@
       <c r="D134" t="n">
         <v>2.2</v>
       </c>
-      <c r="E134" t="n">
-        <v>2</v>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -5613,8 +5898,10 @@
       <c r="D135" t="n">
         <v>1.5</v>
       </c>
-      <c r="E135" t="n">
-        <v>2</v>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -5630,8 +5917,10 @@
       <c r="D136" t="n">
         <v>1.4</v>
       </c>
-      <c r="E136" t="n">
-        <v>2</v>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -5647,8 +5936,10 @@
       <c r="D137" t="n">
         <v>2.3</v>
       </c>
-      <c r="E137" t="n">
-        <v>2</v>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="138">
@@ -5664,8 +5955,10 @@
       <c r="D138" t="n">
         <v>2.4</v>
       </c>
-      <c r="E138" t="n">
-        <v>2</v>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -5681,8 +5974,10 @@
       <c r="D139" t="n">
         <v>1.8</v>
       </c>
-      <c r="E139" t="n">
-        <v>2</v>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="140">
@@ -5698,8 +5993,10 @@
       <c r="D140" t="n">
         <v>1.8</v>
       </c>
-      <c r="E140" t="n">
-        <v>2</v>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -5715,8 +6012,10 @@
       <c r="D141" t="n">
         <v>2.1</v>
       </c>
-      <c r="E141" t="n">
-        <v>2</v>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -5732,8 +6031,10 @@
       <c r="D142" t="n">
         <v>2.4</v>
       </c>
-      <c r="E142" t="n">
-        <v>2</v>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -5749,8 +6050,10 @@
       <c r="D143" t="n">
         <v>2.3</v>
       </c>
-      <c r="E143" t="n">
-        <v>2</v>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -5766,8 +6069,10 @@
       <c r="D144" t="n">
         <v>1.9</v>
       </c>
-      <c r="E144" t="n">
-        <v>2</v>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -5783,8 +6088,10 @@
       <c r="D145" t="n">
         <v>2.3</v>
       </c>
-      <c r="E145" t="n">
-        <v>2</v>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="146">
@@ -5800,8 +6107,10 @@
       <c r="D146" t="n">
         <v>2.5</v>
       </c>
-      <c r="E146" t="n">
-        <v>2</v>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="147">
@@ -5817,8 +6126,10 @@
       <c r="D147" t="n">
         <v>2.3</v>
       </c>
-      <c r="E147" t="n">
-        <v>2</v>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -5834,8 +6145,10 @@
       <c r="D148" t="n">
         <v>1.9</v>
       </c>
-      <c r="E148" t="n">
-        <v>2</v>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="149">
@@ -5851,8 +6164,10 @@
       <c r="D149" t="n">
         <v>2</v>
       </c>
-      <c r="E149" t="n">
-        <v>2</v>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="150">
@@ -5868,8 +6183,10 @@
       <c r="D150" t="n">
         <v>2.3</v>
       </c>
-      <c r="E150" t="n">
-        <v>2</v>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
     <row r="151">
@@ -5885,8 +6202,10 @@
       <c r="D151" t="n">
         <v>1.8</v>
       </c>
-      <c r="E151" t="n">
-        <v>2</v>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5900,7 +6219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5911,30 +6230,25 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dataset order</t>
+          <t>sepal length (cm)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sepal length</t>
+          <t>sepal width (cm)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Sepal width</t>
+          <t>petal length (cm)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Petal length</t>
+          <t>petal width (cm)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Petal width</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Species</t>
         </is>
@@ -5942,89 +6256,77 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="C2" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E2" t="n">
         <v>0.2</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="B3" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E3" t="n">
         <v>0.2</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="B4" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="C4" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E4" t="n">
         <v>0.2</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="B5" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="C5" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E5" t="n">
         <v>0.2</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
@@ -6033,3210 +6335,2772 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="C6" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E6" t="n">
         <v>0.3</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="B7" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="C7" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E7" t="n">
         <v>0.4</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="C8" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E8" t="n">
         <v>0.3</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="C9" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E9" t="n">
         <v>0.2</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>4.4</v>
       </c>
       <c r="B10" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="C10" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="D10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E10" t="n">
         <v>0.2</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>4.9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="C11" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="D11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E11" t="n">
         <v>0.1</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>5.4</v>
       </c>
       <c r="B12" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="C12" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="D12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E12" t="n">
         <v>0.2</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>4.8</v>
       </c>
       <c r="B13" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="C13" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="D13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E13" t="n">
         <v>0.2</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>4.8</v>
       </c>
       <c r="B14" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="D14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E14" t="n">
         <v>0.1</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>4.3</v>
       </c>
       <c r="B15" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="D15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E15" t="n">
         <v>0.1</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>5.8</v>
       </c>
       <c r="B16" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="D16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E16" t="n">
         <v>0.2</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>5.7</v>
       </c>
       <c r="B17" t="n">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="C17" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E17" t="n">
         <v>0.4</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>5.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="C18" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="D18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E18" t="n">
         <v>0.4</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>5.1</v>
       </c>
       <c r="B19" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="C19" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="D19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E19" t="n">
         <v>0.3</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>5.7</v>
       </c>
       <c r="B20" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="C20" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="D20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E20" t="n">
         <v>0.3</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>5.1</v>
       </c>
       <c r="B21" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="C21" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="D21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E21" t="n">
         <v>0.3</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>5.4</v>
       </c>
       <c r="B22" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="C22" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="D22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E22" t="n">
         <v>0.2</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>5.1</v>
       </c>
       <c r="B23" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="C23" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="D23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E23" t="n">
         <v>0.4</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>4.6</v>
       </c>
       <c r="B24" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="C24" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
         <v>0.2</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>5.1</v>
       </c>
       <c r="B25" t="n">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="C25" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="D25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E25" t="n">
         <v>0.5</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>4.8</v>
       </c>
       <c r="B26" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="C26" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="D26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E26" t="n">
         <v>0.2</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="D27" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E27" t="n">
         <v>0.2</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="C28" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="D28" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E28" t="n">
         <v>0.4</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28</v>
+        <v>5.2</v>
       </c>
       <c r="B29" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="C29" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="D29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E29" t="n">
         <v>0.2</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>5.2</v>
       </c>
       <c r="B30" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="C30" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="D30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E30" t="n">
         <v>0.2</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30</v>
+        <v>4.7</v>
       </c>
       <c r="B31" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="C31" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="D31" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E31" t="n">
         <v>0.2</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>4.8</v>
       </c>
       <c r="B32" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="C32" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="D32" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E32" t="n">
         <v>0.2</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32</v>
+        <v>5.4</v>
       </c>
       <c r="B33" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="C33" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="D33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E33" t="n">
         <v>0.4</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33</v>
+        <v>5.2</v>
       </c>
       <c r="B34" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="C34" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="D34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E34" t="n">
         <v>0.1</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34</v>
+        <v>5.5</v>
       </c>
       <c r="B35" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="C35" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="D35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E35" t="n">
         <v>0.2</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35</v>
+        <v>4.9</v>
       </c>
       <c r="B36" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="C36" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="D36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E36" t="n">
         <v>0.2</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="C37" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="D37" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E37" t="n">
         <v>0.2</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>5.5</v>
       </c>
       <c r="B38" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="C38" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="D38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E38" t="n">
         <v>0.2</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>4.9</v>
       </c>
       <c r="B39" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="C39" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="D39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E39" t="n">
         <v>0.1</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39</v>
+        <v>4.4</v>
       </c>
       <c r="B40" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="D40" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E40" t="n">
         <v>0.2</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40</v>
+        <v>5.1</v>
       </c>
       <c r="B41" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="C41" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="D41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E41" t="n">
         <v>0.2</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="C42" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="D42" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E42" t="n">
         <v>0.3</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42</v>
+        <v>4.5</v>
       </c>
       <c r="B43" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="C43" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="D43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E43" t="n">
         <v>0.3</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>4.4</v>
       </c>
       <c r="B44" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="C44" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="D44" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E44" t="n">
         <v>0.2</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="C45" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="D45" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E45" t="n">
         <v>0.6</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45</v>
+        <v>5.1</v>
       </c>
       <c r="B46" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="C46" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="D46" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E46" t="n">
         <v>0.4</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46</v>
+        <v>4.8</v>
       </c>
       <c r="B47" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="D47" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E47" t="n">
         <v>0.3</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>47</v>
+        <v>5.1</v>
       </c>
       <c r="B48" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="C48" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="D48" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E48" t="n">
         <v>0.2</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>48</v>
+        <v>4.6</v>
       </c>
       <c r="B49" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="C49" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="D49" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E49" t="n">
         <v>0.2</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>49</v>
+        <v>5.3</v>
       </c>
       <c r="B50" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="C50" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="D50" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E50" t="n">
         <v>0.2</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="C51" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="D51" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E51" t="n">
         <v>0.2</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>I. setosa</t>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Iris-setosa</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B52" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="C52" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="D52" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E52" t="n">
         <v>1.4</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>52</v>
+        <v>6.4</v>
       </c>
       <c r="B53" t="n">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="C53" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D53" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E53" t="n">
         <v>1.5</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>53</v>
+        <v>6.9</v>
       </c>
       <c r="B54" t="n">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="C54" t="n">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="D54" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E54" t="n">
         <v>1.5</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54</v>
+        <v>5.5</v>
       </c>
       <c r="B55" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="C55" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
-      </c>
-      <c r="E55" t="n">
         <v>1.3</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>55</v>
+        <v>6.5</v>
       </c>
       <c r="B56" t="n">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="C56" t="n">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="D56" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E56" t="n">
         <v>1.5</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56</v>
+        <v>5.7</v>
       </c>
       <c r="B57" t="n">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="C57" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="D57" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E57" t="n">
         <v>1.3</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>57</v>
+        <v>6.3</v>
       </c>
       <c r="B58" t="n">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="C58" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="D58" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E58" t="n">
         <v>1.6</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>58</v>
+        <v>4.9</v>
       </c>
       <c r="B59" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="C59" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="D59" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E59" t="n">
         <v>1</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>59</v>
+        <v>6.6</v>
       </c>
       <c r="B60" t="n">
-        <v>6.6</v>
+        <v>2.9</v>
       </c>
       <c r="C60" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="D60" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E60" t="n">
         <v>1.3</v>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60</v>
+        <v>5.2</v>
       </c>
       <c r="B61" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="C61" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D61" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="E61" t="n">
         <v>1.4</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D62" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E62" t="n">
         <v>1</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>62</v>
+        <v>5.9</v>
       </c>
       <c r="B63" t="n">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="D63" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E63" t="n">
         <v>1.5</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="B64" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="C64" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
-      </c>
-      <c r="E64" t="n">
         <v>1</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>6.1</v>
       </c>
       <c r="B65" t="n">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
       <c r="C65" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="D65" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E65" t="n">
         <v>1.4</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>65</v>
+        <v>5.6</v>
       </c>
       <c r="B66" t="n">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="C66" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D66" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="E66" t="n">
         <v>1.3</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66</v>
+        <v>6.7</v>
       </c>
       <c r="B67" t="n">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="C67" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="D67" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E67" t="n">
         <v>1.4</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>67</v>
+        <v>5.6</v>
       </c>
       <c r="B68" t="n">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D68" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E68" t="n">
         <v>1.5</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68</v>
+        <v>5.8</v>
       </c>
       <c r="B69" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="C69" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D69" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E69" t="n">
         <v>1</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69</v>
+        <v>6.2</v>
       </c>
       <c r="B70" t="n">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="C70" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="D70" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E70" t="n">
         <v>1.5</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>70</v>
+        <v>5.6</v>
       </c>
       <c r="B71" t="n">
-        <v>5.6</v>
+        <v>2.5</v>
       </c>
       <c r="C71" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="D71" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="E71" t="n">
         <v>1.1</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>71</v>
+        <v>5.9</v>
       </c>
       <c r="B72" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="C72" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="D72" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E72" t="n">
         <v>1.8</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>72</v>
+        <v>6.1</v>
       </c>
       <c r="B73" t="n">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="C73" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>4</v>
-      </c>
-      <c r="E73" t="n">
         <v>1.3</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>73</v>
+        <v>6.3</v>
       </c>
       <c r="B74" t="n">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="C74" t="n">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="D74" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E74" t="n">
         <v>1.5</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>74</v>
+        <v>6.1</v>
       </c>
       <c r="B75" t="n">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="C75" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="D75" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E75" t="n">
         <v>1.2</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>75</v>
+        <v>6.4</v>
       </c>
       <c r="B76" t="n">
-        <v>6.4</v>
+        <v>2.9</v>
       </c>
       <c r="C76" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="D76" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E76" t="n">
         <v>1.3</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>76</v>
+        <v>6.6</v>
       </c>
       <c r="B77" t="n">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="D77" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E77" t="n">
         <v>1.4</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>77</v>
+        <v>6.8</v>
       </c>
       <c r="B78" t="n">
-        <v>6.8</v>
+        <v>2.8</v>
       </c>
       <c r="C78" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="D78" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E78" t="n">
         <v>1.4</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>78</v>
+        <v>6.7</v>
       </c>
       <c r="B79" t="n">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
-      </c>
-      <c r="E79" t="n">
         <v>1.7</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="B80" t="n">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="C80" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="D80" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E80" t="n">
         <v>1.5</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>80</v>
+        <v>5.7</v>
       </c>
       <c r="B81" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="C81" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D81" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E81" t="n">
         <v>1</v>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>81</v>
+        <v>5.5</v>
       </c>
       <c r="B82" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="C82" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="D82" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="E82" t="n">
         <v>1.1</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>82</v>
+        <v>5.5</v>
       </c>
       <c r="B83" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="C83" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="D83" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="E83" t="n">
         <v>1</v>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>83</v>
+        <v>5.8</v>
       </c>
       <c r="B84" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="C84" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D84" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="E84" t="n">
         <v>1.2</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="C85" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="D85" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E85" t="n">
         <v>1.6</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>85</v>
+        <v>5.4</v>
       </c>
       <c r="B86" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D86" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E86" t="n">
         <v>1.5</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="C87" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="D87" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E87" t="n">
         <v>1.6</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>87</v>
+        <v>6.7</v>
       </c>
       <c r="B88" t="n">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="C88" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="D88" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E88" t="n">
         <v>1.5</v>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>88</v>
+        <v>6.3</v>
       </c>
       <c r="B89" t="n">
-        <v>6.3</v>
+        <v>2.3</v>
       </c>
       <c r="C89" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="D89" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E89" t="n">
         <v>1.3</v>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>89</v>
+        <v>5.6</v>
       </c>
       <c r="B90" t="n">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D90" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E90" t="n">
         <v>1.3</v>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>90</v>
+        <v>5.5</v>
       </c>
       <c r="B91" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="C91" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>4</v>
-      </c>
-      <c r="E91" t="n">
         <v>1.3</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>91</v>
+        <v>5.5</v>
       </c>
       <c r="B92" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="C92" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="D92" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E92" t="n">
         <v>1.2</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>92</v>
+        <v>6.1</v>
       </c>
       <c r="B93" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="D93" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E93" t="n">
         <v>1.4</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>93</v>
+        <v>5.8</v>
       </c>
       <c r="B94" t="n">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="C94" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
-      </c>
-      <c r="E94" t="n">
         <v>1.2</v>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="B95" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="C95" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="D95" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E95" t="n">
         <v>1</v>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>95</v>
+        <v>5.6</v>
       </c>
       <c r="B96" t="n">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="C96" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="D96" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E96" t="n">
         <v>1.3</v>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>96</v>
+        <v>5.7</v>
       </c>
       <c r="B97" t="n">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="D97" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E97" t="n">
         <v>1.2</v>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>97</v>
+        <v>5.7</v>
       </c>
       <c r="B98" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="C98" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="D98" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E98" t="n">
         <v>1.3</v>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>98</v>
+        <v>6.2</v>
       </c>
       <c r="B99" t="n">
-        <v>6.2</v>
+        <v>2.9</v>
       </c>
       <c r="C99" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="D99" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E99" t="n">
         <v>1.3</v>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>99</v>
+        <v>5.1</v>
       </c>
       <c r="B100" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="C100" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
-      </c>
-      <c r="E100" t="n">
         <v>1.1</v>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>100</v>
+        <v>5.7</v>
       </c>
       <c r="B101" t="n">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="C101" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E101" t="n">
         <v>1.3</v>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>I. versicolor</t>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Iris-versicolor</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>101</v>
+        <v>6.3</v>
       </c>
       <c r="B102" t="n">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="C102" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>6</v>
-      </c>
-      <c r="E102" t="n">
         <v>2.5</v>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>102</v>
+        <v>5.8</v>
       </c>
       <c r="B103" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="C103" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="D103" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E103" t="n">
         <v>1.9</v>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>103</v>
+        <v>7.1</v>
       </c>
       <c r="B104" t="n">
-        <v>7.1</v>
+        <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="D104" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E104" t="n">
         <v>2.1</v>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>104</v>
+        <v>6.3</v>
       </c>
       <c r="B105" t="n">
-        <v>6.3</v>
+        <v>2.9</v>
       </c>
       <c r="C105" t="n">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
       <c r="D105" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="E105" t="n">
         <v>1.8</v>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>105</v>
+        <v>6.5</v>
       </c>
       <c r="B106" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="D106" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="E106" t="n">
         <v>2.2</v>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>106</v>
+        <v>7.6</v>
       </c>
       <c r="B107" t="n">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="D107" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E107" t="n">
         <v>2.1</v>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>107</v>
+        <v>4.9</v>
       </c>
       <c r="B108" t="n">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="C108" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="D108" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E108" t="n">
         <v>1.7</v>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>108</v>
+        <v>7.3</v>
       </c>
       <c r="B109" t="n">
-        <v>7.3</v>
+        <v>2.9</v>
       </c>
       <c r="C109" t="n">
-        <v>2.9</v>
+        <v>6.3</v>
       </c>
       <c r="D109" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E109" t="n">
         <v>1.8</v>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>109</v>
+        <v>6.7</v>
       </c>
       <c r="B110" t="n">
-        <v>6.7</v>
+        <v>2.5</v>
       </c>
       <c r="C110" t="n">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
       <c r="D110" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="E110" t="n">
         <v>1.8</v>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>110</v>
+        <v>7.2</v>
       </c>
       <c r="B111" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="C111" t="n">
-        <v>3.6</v>
+        <v>6.1</v>
       </c>
       <c r="D111" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E111" t="n">
         <v>2.5</v>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111</v>
+        <v>6.5</v>
       </c>
       <c r="B112" t="n">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="C112" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="D112" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E112" t="n">
         <v>2</v>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>112</v>
+        <v>6.4</v>
       </c>
       <c r="B113" t="n">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
       <c r="C113" t="n">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="D113" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="E113" t="n">
         <v>1.9</v>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>113</v>
+        <v>6.8</v>
       </c>
       <c r="B114" t="n">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="D114" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="E114" t="n">
         <v>2.1</v>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>114</v>
+        <v>5.7</v>
       </c>
       <c r="B115" t="n">
-        <v>5.7</v>
+        <v>2.5</v>
       </c>
       <c r="C115" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D115" t="n">
-        <v>5</v>
-      </c>
-      <c r="E115" t="n">
         <v>2</v>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>115</v>
+        <v>5.8</v>
       </c>
       <c r="B116" t="n">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="C116" t="n">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="D116" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E116" t="n">
         <v>2.4</v>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>116</v>
+        <v>6.4</v>
       </c>
       <c r="B117" t="n">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="C117" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="D117" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="E117" t="n">
         <v>2.3</v>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>117</v>
+        <v>6.5</v>
       </c>
       <c r="B118" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="C118" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="D118" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="E118" t="n">
         <v>1.8</v>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>118</v>
+        <v>7.7</v>
       </c>
       <c r="B119" t="n">
-        <v>7.7</v>
+        <v>3.8</v>
       </c>
       <c r="C119" t="n">
-        <v>3.8</v>
+        <v>6.7</v>
       </c>
       <c r="D119" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E119" t="n">
         <v>2.2</v>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>119</v>
+        <v>7.7</v>
       </c>
       <c r="B120" t="n">
-        <v>7.7</v>
+        <v>2.6</v>
       </c>
       <c r="C120" t="n">
-        <v>2.6</v>
+        <v>6.9</v>
       </c>
       <c r="D120" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E120" t="n">
         <v>2.3</v>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="B121" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="C121" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="D121" t="n">
-        <v>5</v>
-      </c>
-      <c r="E121" t="n">
         <v>1.5</v>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>121</v>
+        <v>6.9</v>
       </c>
       <c r="B122" t="n">
-        <v>6.9</v>
+        <v>3.2</v>
       </c>
       <c r="C122" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="D122" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E122" t="n">
         <v>2.3</v>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>122</v>
+        <v>5.6</v>
       </c>
       <c r="B123" t="n">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="C123" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="D123" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E123" t="n">
         <v>2</v>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>123</v>
+        <v>7.7</v>
       </c>
       <c r="B124" t="n">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
       <c r="C124" t="n">
-        <v>2.8</v>
+        <v>6.7</v>
       </c>
       <c r="D124" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E124" t="n">
         <v>2</v>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>124</v>
+        <v>6.3</v>
       </c>
       <c r="B125" t="n">
-        <v>6.3</v>
+        <v>2.7</v>
       </c>
       <c r="C125" t="n">
-        <v>2.7</v>
+        <v>4.9</v>
       </c>
       <c r="D125" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E125" t="n">
         <v>1.8</v>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>125</v>
+        <v>6.7</v>
       </c>
       <c r="B126" t="n">
-        <v>6.7</v>
+        <v>3.3</v>
       </c>
       <c r="C126" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="D126" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E126" t="n">
         <v>2.1</v>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>126</v>
+        <v>7.2</v>
       </c>
       <c r="B127" t="n">
-        <v>7.2</v>
+        <v>3.2</v>
       </c>
       <c r="C127" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>6</v>
-      </c>
-      <c r="E127" t="n">
         <v>1.8</v>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>127</v>
+        <v>6.2</v>
       </c>
       <c r="B128" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="C128" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="D128" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E128" t="n">
         <v>1.8</v>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>128</v>
+        <v>6.1</v>
       </c>
       <c r="B129" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="D129" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E129" t="n">
         <v>1.8</v>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>129</v>
+        <v>6.4</v>
       </c>
       <c r="B130" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="C130" t="n">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="D130" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="E130" t="n">
         <v>2.1</v>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>130</v>
+        <v>7.2</v>
       </c>
       <c r="B131" t="n">
-        <v>7.2</v>
+        <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="D131" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="E131" t="n">
         <v>1.6</v>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>131</v>
+        <v>7.4</v>
       </c>
       <c r="B132" t="n">
-        <v>7.4</v>
+        <v>2.8</v>
       </c>
       <c r="C132" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="D132" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E132" t="n">
         <v>1.9</v>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>132</v>
+        <v>7.9</v>
       </c>
       <c r="B133" t="n">
-        <v>7.9</v>
+        <v>3.8</v>
       </c>
       <c r="C133" t="n">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="D133" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="E133" t="n">
         <v>2</v>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>133</v>
+        <v>6.4</v>
       </c>
       <c r="B134" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="C134" t="n">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="D134" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="E134" t="n">
         <v>2.2</v>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>134</v>
+        <v>6.3</v>
       </c>
       <c r="B135" t="n">
-        <v>6.3</v>
+        <v>2.8</v>
       </c>
       <c r="C135" t="n">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="D135" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E135" t="n">
         <v>1.5</v>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>135</v>
+        <v>6.1</v>
       </c>
       <c r="B136" t="n">
-        <v>6.1</v>
+        <v>2.6</v>
       </c>
       <c r="C136" t="n">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="D136" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="E136" t="n">
         <v>1.4</v>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>136</v>
+        <v>7.7</v>
       </c>
       <c r="B137" t="n">
-        <v>7.7</v>
+        <v>3</v>
       </c>
       <c r="C137" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="D137" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E137" t="n">
         <v>2.3</v>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>137</v>
+        <v>6.3</v>
       </c>
       <c r="B138" t="n">
-        <v>6.3</v>
+        <v>3.4</v>
       </c>
       <c r="C138" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="D138" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="E138" t="n">
         <v>2.4</v>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>138</v>
+        <v>6.4</v>
       </c>
       <c r="B139" t="n">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="C139" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="D139" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="E139" t="n">
         <v>1.8</v>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="B140" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C140" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="D140" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E140" t="n">
         <v>1.8</v>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>140</v>
+        <v>6.9</v>
       </c>
       <c r="B141" t="n">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="C141" t="n">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="D141" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E141" t="n">
         <v>2.1</v>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>141</v>
+        <v>6.7</v>
       </c>
       <c r="B142" t="n">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="C142" t="n">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="D142" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="E142" t="n">
         <v>2.4</v>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>142</v>
+        <v>6.9</v>
       </c>
       <c r="B143" t="n">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="C143" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="D143" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E143" t="n">
         <v>2.3</v>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>143</v>
+        <v>5.8</v>
       </c>
       <c r="B144" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="C144" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="D144" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E144" t="n">
         <v>1.9</v>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>144</v>
+        <v>6.8</v>
       </c>
       <c r="B145" t="n">
-        <v>6.8</v>
+        <v>3.2</v>
       </c>
       <c r="C145" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="D145" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E145" t="n">
         <v>2.3</v>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>145</v>
+        <v>6.7</v>
       </c>
       <c r="B146" t="n">
-        <v>6.7</v>
+        <v>3.3</v>
       </c>
       <c r="C146" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="D146" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E146" t="n">
         <v>2.5</v>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>146</v>
+        <v>6.7</v>
       </c>
       <c r="B147" t="n">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="C147" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="D147" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="E147" t="n">
         <v>2.3</v>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>147</v>
+        <v>6.3</v>
       </c>
       <c r="B148" t="n">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="C148" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D148" t="n">
-        <v>5</v>
-      </c>
-      <c r="E148" t="n">
         <v>1.9</v>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>148</v>
+        <v>6.5</v>
       </c>
       <c r="B149" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="D149" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="E149" t="n">
         <v>2</v>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>149</v>
+        <v>6.2</v>
       </c>
       <c r="B150" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="C150" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="D150" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E150" t="n">
         <v>2.3</v>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>150</v>
+        <v>5.9</v>
       </c>
       <c r="B151" t="n">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="C151" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="D151" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E151" t="n">
         <v>1.8</v>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>I. virginica</t>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Iris-virginica</t>
         </is>
       </c>
     </row>

--- a/iris_dataset.xlsx
+++ b/iris_dataset.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="API" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wiki" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UCI Dataset" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SK Learn Dataset" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wikipedia Dataset" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/iris_dataset.xlsx
+++ b/iris_dataset.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UCI Dataset" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SK Learn Dataset" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wikipedia Dataset" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="API" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wiki" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
